--- a/FISHTRADER/ARIMA/Grafico 5 - Proteina/db_world.xlsx
+++ b/FISHTRADER/ARIMA/Grafico 5 - Proteina/db_world.xlsx
@@ -35,8 +35,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -109,7 +110,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -119,6 +120,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -143,10 +148,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -163,81 +168,102 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>43100</v>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="4" t="n">
         <v>136.37</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="4" t="n">
         <v>60157064</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>43465</v>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="4" t="n">
         <v>139.52</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="4" t="n">
         <v>61271389</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>43830</v>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4" t="n">
         <v>144.13</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="4" t="n">
         <v>60852988</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>44196</v>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4" t="n">
         <v>143.96</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="4" t="n">
         <v>54798086</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>44561</v>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4" t="n">
         <v>146.52</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="4" t="n">
         <v>61586108</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="3" t="n">
         <v>44926</v>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="4" t="n">
         <v>183.9</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="4" t="n">
         <v>62304251</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="3" t="n">
         <v>45291</v>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="4" t="n">
         <v>186.7</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C8" s="4" t="n">
         <v>65035650</v>
       </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
